--- a/Global YoY Wheat Prod Price Chg.xlsx
+++ b/Global YoY Wheat Prod Price Chg.xlsx
@@ -8,13 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elenahorton/Documents/HBS/ESE 168/ESE168_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03927860-E328-7F47-81AC-31ADC1470FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1EBC61-A3A8-9944-A845-97B027E74456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2120" yWindow="1900" windowWidth="25240" windowHeight="13940" xr2:uid="{D730106C-2652-BD42-A5E7-8D7873016A89}"/>
+    <workbookView xWindow="2120" yWindow="1880" windowWidth="25240" windowHeight="13940" xr2:uid="{D730106C-2652-BD42-A5E7-8D7873016A89}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$AG$5:$BJ$5</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$AG$7:$BL$7</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$AG$5:$BJ$5</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$AG$7:$BL$7</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$AG$5:$BJ$5</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$AG$7:$BL$7</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -887,7 +895,678 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>YoY Price vs. Production</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Change (Wheat, Global)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AG$5:$BJ$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>-6.6401187440055298E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5616472376424957E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.646742440964859E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.9133550833738955E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4946235427480321E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.5912791319408859E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0743935724556284E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4.34180326657575E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.0282386540346966E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.0050624529870276E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3.6784388001877E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.20546230362595E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-6.7229107733998816E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14165088662527614</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.9619597442315238E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.2342538145825319E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-9.6202269902908588E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.10736974670714861</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.5632127945750582E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-5.3539470536991818E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.7147564939785251E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.400237667017624E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.6973548796288789E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.7488256417413259E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.2829531036917983E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.2541192699661092E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.8158387340164293E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-4.7379305425083951E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.0523774940446566E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-3.7853097232026789E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AG$7:$BL$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-5.0652116287609461E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17489989833205843</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-7.2431676174388504E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8264145032099988E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18144209358528718</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11453733363024377</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.24193260743188938</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.2344149745396642</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.14156158977867439</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5219265058975093E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5926327350195093E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.24249091213464502</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.8817382291637097E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8739790117942245E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.509952559906615E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.30433903150929953</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.36683693311508891</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.26724292317978882</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.34427029438190404</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6253533395447217E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.43565340317944257</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.4101078350539864E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-3.8518792305725635E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-8.5767947233833186E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.23480110861895442</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.22954718506973659</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.4613166500609065E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28105438314032627</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.12287883145259038</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.13632134308314336</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.4327454610008612</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.38927461743201186</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4805-534C-8A7D-8CFD8537A752}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="934136448"/>
+        <c:axId val="1674482319"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="934136448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Production</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1674482319"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1674482319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Wheat Price</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Index</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="934136448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1443,6 +2122,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1478,6 +2673,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F34E89C-E4EA-AB4A-9FF1-7A5B05E32C82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1785,8 +3018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09103DCA-1B87-6A4D-A33B-8591D84895E7}">
   <dimension ref="B3:BL9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="L14" workbookViewId="0">
+      <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2180,7 +3413,7 @@
         <v>0.12835232269982977</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:BJ5" si="0">(E4/D4)-1</f>
+        <f t="shared" ref="E5:AF5" si="0">(E4/D4)-1</f>
         <v>-5.6897126134934362E-2</v>
       </c>
       <c r="F5">
@@ -2292,123 +3525,123 @@
         <v>9.6254903695550675E-2</v>
       </c>
       <c r="AG5">
-        <f t="shared" si="0"/>
+        <f>(AG4/AF4)-1</f>
         <v>-6.6401187440055298E-2</v>
       </c>
       <c r="AH5">
-        <f t="shared" si="0"/>
+        <f>(AH4/AG4)-1</f>
         <v>3.5616472376424957E-2</v>
       </c>
       <c r="AI5">
-        <f t="shared" si="0"/>
+        <f>(AI4/AH4)-1</f>
         <v>6.646742440964859E-3</v>
       </c>
       <c r="AJ5">
-        <f t="shared" si="0"/>
+        <f>(AJ4/AI4)-1</f>
         <v>-6.9133550833738955E-2</v>
       </c>
       <c r="AK5">
-        <f t="shared" si="0"/>
+        <f>(AK4/AJ4)-1</f>
         <v>3.4946235427480321E-2</v>
       </c>
       <c r="AL5">
-        <f t="shared" si="0"/>
+        <f>(AL4/AK4)-1</f>
         <v>6.5912791319408859E-2</v>
       </c>
       <c r="AM5">
-        <f t="shared" si="0"/>
+        <f>(AM4/AL4)-1</f>
         <v>7.0743935724556284E-2</v>
       </c>
       <c r="AN5">
-        <f t="shared" si="0"/>
+        <f>(AN4/AM4)-1</f>
         <v>-4.34180326657575E-2</v>
       </c>
       <c r="AO5">
-        <f t="shared" si="0"/>
+        <f>(AO4/AN4)-1</f>
         <v>-1.0282386540346966E-2</v>
       </c>
       <c r="AP5">
-        <f t="shared" si="0"/>
+        <f>(AP4/AO4)-1</f>
         <v>-2.0050624529870276E-2</v>
       </c>
       <c r="AQ5">
-        <f t="shared" si="0"/>
+        <f>(AQ4/AP4)-1</f>
         <v>-3.6784388001877E-3</v>
       </c>
       <c r="AR5">
-        <f t="shared" si="0"/>
+        <f>(AR4/AQ4)-1</f>
         <v>3.20546230362595E-4</v>
       </c>
       <c r="AS5">
-        <f t="shared" si="0"/>
+        <f>(AS4/AR4)-1</f>
         <v>-6.7229107733998816E-2</v>
       </c>
       <c r="AT5">
-        <f t="shared" si="0"/>
+        <f>(AT4/AS4)-1</f>
         <v>0.14165088662527614</v>
       </c>
       <c r="AU5">
-        <f t="shared" si="0"/>
+        <f>(AU4/AT4)-1</f>
         <v>-2.9619597442315238E-3</v>
       </c>
       <c r="AV5">
-        <f t="shared" si="0"/>
+        <f>(AV4/AU4)-1</f>
         <v>-2.2342538145825319E-3</v>
       </c>
       <c r="AW5">
-        <f t="shared" si="0"/>
+        <f>(AW4/AV4)-1</f>
         <v>-9.6202269902908588E-3</v>
       </c>
       <c r="AX5">
-        <f t="shared" si="0"/>
+        <f>(AX4/AW4)-1</f>
         <v>0.10736974670714861</v>
       </c>
       <c r="AY5">
-        <f t="shared" si="0"/>
+        <f>(AY4/AX4)-1</f>
         <v>7.5632127945750582E-3</v>
       </c>
       <c r="AZ5">
-        <f t="shared" si="0"/>
+        <f>(AZ4/AY4)-1</f>
         <v>-5.3539470536991818E-2</v>
       </c>
       <c r="BA5">
-        <f t="shared" si="0"/>
+        <f>(BA4/AZ4)-1</f>
         <v>7.7147564939785251E-2</v>
       </c>
       <c r="BB5">
-        <f t="shared" si="0"/>
+        <f>(BB4/BA4)-1</f>
         <v>-2.400237667017624E-2</v>
       </c>
       <c r="BC5">
-        <f t="shared" si="0"/>
+        <f>(BC4/BB4)-1</f>
         <v>4.6973548796288789E-2</v>
       </c>
       <c r="BD5">
-        <f t="shared" si="0"/>
+        <f>(BD4/BC4)-1</f>
         <v>2.7488256417413259E-2</v>
       </c>
       <c r="BE5">
-        <f t="shared" si="0"/>
+        <f>(BE4/BD4)-1</f>
         <v>2.2829531036917983E-2</v>
       </c>
       <c r="BF5">
-        <f t="shared" si="0"/>
+        <f>(BF4/BE4)-1</f>
         <v>8.2541192699661092E-3</v>
       </c>
       <c r="BG5">
-        <f t="shared" si="0"/>
+        <f>(BG4/BF4)-1</f>
         <v>2.8158387340164293E-2</v>
       </c>
       <c r="BH5">
-        <f t="shared" si="0"/>
+        <f>(BH4/BG4)-1</f>
         <v>-4.7379305425083951E-2</v>
       </c>
       <c r="BI5">
-        <f t="shared" si="0"/>
+        <f>(BI4/BH4)-1</f>
         <v>4.0523774940446566E-2</v>
       </c>
       <c r="BJ5">
-        <f t="shared" si="0"/>
+        <f>(BJ4/BI4)-1</f>
         <v>-3.7853097232026789E-3</v>
       </c>
     </row>
@@ -2641,7 +3874,7 @@
         <v>0.13632134308314336</v>
       </c>
       <c r="BK7">
-        <f t="shared" si="1"/>
+        <f>(BK6/BJ6)-1</f>
         <v>0.4327454610008612</v>
       </c>
       <c r="BL7">

--- a/Global YoY Wheat Prod Price Chg.xlsx
+++ b/Global YoY Wheat Prod Price Chg.xlsx
@@ -8,22 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elenahorton/Documents/HBS/ESE 168/ESE168_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1EBC61-A3A8-9944-A845-97B027E74456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8700023A-76FB-544E-9B5E-864CF315ED0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2120" yWindow="1880" windowWidth="25240" windowHeight="13940" xr2:uid="{D730106C-2652-BD42-A5E7-8D7873016A89}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$AG$5:$BJ$5</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$AG$7:$BL$7</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$AG$5:$BJ$5</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$AG$7:$BL$7</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$AG$5:$BJ$5</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$AG$7:$BL$7</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -135,7 +127,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -3018,8 +3010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09103DCA-1B87-6A4D-A33B-8591D84895E7}">
   <dimension ref="B3:BL9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L14" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AP5" sqref="AP5:BJ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3525,123 +3517,123 @@
         <v>9.6254903695550675E-2</v>
       </c>
       <c r="AG5">
-        <f>(AG4/AF4)-1</f>
+        <f t="shared" ref="AG5:BJ5" si="1">(AG4/AF4)-1</f>
         <v>-6.6401187440055298E-2</v>
       </c>
       <c r="AH5">
-        <f>(AH4/AG4)-1</f>
+        <f t="shared" si="1"/>
         <v>3.5616472376424957E-2</v>
       </c>
       <c r="AI5">
-        <f>(AI4/AH4)-1</f>
+        <f t="shared" si="1"/>
         <v>6.646742440964859E-3</v>
       </c>
       <c r="AJ5">
-        <f>(AJ4/AI4)-1</f>
+        <f t="shared" si="1"/>
         <v>-6.9133550833738955E-2</v>
       </c>
       <c r="AK5">
-        <f>(AK4/AJ4)-1</f>
+        <f t="shared" si="1"/>
         <v>3.4946235427480321E-2</v>
       </c>
       <c r="AL5">
-        <f>(AL4/AK4)-1</f>
+        <f t="shared" si="1"/>
         <v>6.5912791319408859E-2</v>
       </c>
       <c r="AM5">
-        <f>(AM4/AL4)-1</f>
+        <f t="shared" si="1"/>
         <v>7.0743935724556284E-2</v>
       </c>
       <c r="AN5">
-        <f>(AN4/AM4)-1</f>
+        <f t="shared" si="1"/>
         <v>-4.34180326657575E-2</v>
       </c>
       <c r="AO5">
-        <f>(AO4/AN4)-1</f>
+        <f t="shared" si="1"/>
         <v>-1.0282386540346966E-2</v>
       </c>
       <c r="AP5">
-        <f>(AP4/AO4)-1</f>
+        <f t="shared" si="1"/>
         <v>-2.0050624529870276E-2</v>
       </c>
       <c r="AQ5">
-        <f>(AQ4/AP4)-1</f>
+        <f t="shared" si="1"/>
         <v>-3.6784388001877E-3</v>
       </c>
       <c r="AR5">
-        <f>(AR4/AQ4)-1</f>
+        <f t="shared" si="1"/>
         <v>3.20546230362595E-4</v>
       </c>
       <c r="AS5">
-        <f>(AS4/AR4)-1</f>
+        <f t="shared" si="1"/>
         <v>-6.7229107733998816E-2</v>
       </c>
       <c r="AT5">
-        <f>(AT4/AS4)-1</f>
+        <f t="shared" si="1"/>
         <v>0.14165088662527614</v>
       </c>
       <c r="AU5">
-        <f>(AU4/AT4)-1</f>
+        <f t="shared" si="1"/>
         <v>-2.9619597442315238E-3</v>
       </c>
       <c r="AV5">
-        <f>(AV4/AU4)-1</f>
+        <f t="shared" si="1"/>
         <v>-2.2342538145825319E-3</v>
       </c>
       <c r="AW5">
-        <f>(AW4/AV4)-1</f>
+        <f t="shared" si="1"/>
         <v>-9.6202269902908588E-3</v>
       </c>
       <c r="AX5">
-        <f>(AX4/AW4)-1</f>
+        <f t="shared" si="1"/>
         <v>0.10736974670714861</v>
       </c>
       <c r="AY5">
-        <f>(AY4/AX4)-1</f>
+        <f t="shared" si="1"/>
         <v>7.5632127945750582E-3</v>
       </c>
       <c r="AZ5">
-        <f>(AZ4/AY4)-1</f>
+        <f t="shared" si="1"/>
         <v>-5.3539470536991818E-2</v>
       </c>
       <c r="BA5">
-        <f>(BA4/AZ4)-1</f>
+        <f t="shared" si="1"/>
         <v>7.7147564939785251E-2</v>
       </c>
       <c r="BB5">
-        <f>(BB4/BA4)-1</f>
+        <f t="shared" si="1"/>
         <v>-2.400237667017624E-2</v>
       </c>
       <c r="BC5">
-        <f>(BC4/BB4)-1</f>
+        <f t="shared" si="1"/>
         <v>4.6973548796288789E-2</v>
       </c>
       <c r="BD5">
-        <f>(BD4/BC4)-1</f>
+        <f t="shared" si="1"/>
         <v>2.7488256417413259E-2</v>
       </c>
       <c r="BE5">
-        <f>(BE4/BD4)-1</f>
+        <f t="shared" si="1"/>
         <v>2.2829531036917983E-2</v>
       </c>
       <c r="BF5">
-        <f>(BF4/BE4)-1</f>
+        <f t="shared" si="1"/>
         <v>8.2541192699661092E-3</v>
       </c>
       <c r="BG5">
-        <f>(BG4/BF4)-1</f>
+        <f t="shared" si="1"/>
         <v>2.8158387340164293E-2</v>
       </c>
       <c r="BH5">
-        <f>(BH4/BG4)-1</f>
+        <f t="shared" si="1"/>
         <v>-4.7379305425083951E-2</v>
       </c>
       <c r="BI5">
-        <f>(BI4/BH4)-1</f>
+        <f t="shared" si="1"/>
         <v>4.0523774940446566E-2</v>
       </c>
       <c r="BJ5">
-        <f>(BJ4/BI4)-1</f>
+        <f t="shared" si="1"/>
         <v>-3.7853097232026789E-3</v>
       </c>
     </row>
@@ -3758,119 +3750,119 @@
         <v>-5.0652116287609461E-2</v>
       </c>
       <c r="AH7">
-        <f t="shared" ref="AH7:BL7" si="1">(AH6/AG6)-1</f>
+        <f t="shared" ref="AH7:BL7" si="2">(AH6/AG6)-1</f>
         <v>0.17489989833205843</v>
       </c>
       <c r="AI7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-7.2431676174388504E-2</v>
       </c>
       <c r="AJ7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.8264145032099988E-2</v>
       </c>
       <c r="AK7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.18144209358528718</v>
       </c>
       <c r="AL7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11453733363024377</v>
       </c>
       <c r="AM7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.24193260743188938</v>
       </c>
       <c r="AN7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.2344149745396642</v>
       </c>
       <c r="AO7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.14156158977867439</v>
       </c>
       <c r="AP7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5219265058975093E-2</v>
       </c>
       <c r="AQ7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.5926327350195093E-2</v>
       </c>
       <c r="AR7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.24249091213464502</v>
       </c>
       <c r="AS7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.8817382291637097E-3</v>
       </c>
       <c r="AT7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8739790117942245E-2</v>
       </c>
       <c r="AU7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.509952559906615E-2</v>
       </c>
       <c r="AV7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.30433903150929953</v>
       </c>
       <c r="AW7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.36683693311508891</v>
       </c>
       <c r="AX7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.26724292317978882</v>
       </c>
       <c r="AY7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.34427029438190404</v>
       </c>
       <c r="AZ7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6253533395447217E-2</v>
       </c>
       <c r="BA7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.43565340317944257</v>
       </c>
       <c r="BB7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.4101078350539864E-2</v>
       </c>
       <c r="BC7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.8518792305725635E-2</v>
       </c>
       <c r="BD7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-8.5767947233833186E-2</v>
       </c>
       <c r="BE7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.23480110861895442</v>
       </c>
       <c r="BF7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.22954718506973659</v>
       </c>
       <c r="BG7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4613166500609065E-2</v>
       </c>
       <c r="BH7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.28105438314032627</v>
       </c>
       <c r="BI7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.12287883145259038</v>
       </c>
       <c r="BJ7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.13632134308314336</v>
       </c>
       <c r="BK7">
@@ -3878,7 +3870,7 @@
         <v>0.4327454610008612</v>
       </c>
       <c r="BL7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.38927461743201186</v>
       </c>
     </row>
